--- a/biology/Botanique/Friteuse_sous_vide/Friteuse_sous_vide.xlsx
+++ b/biology/Botanique/Friteuse_sous_vide/Friteuse_sous_vide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une friteuse sous vide est une installation de friture industrielle logée dans une chambre à vide. Elle a été mise au point à l'origine pour la production de chips de pommes de terre.
 Les friteuses sous vide sont adaptées à l'exploitation des pommes de terre de faible qualité qui ont des taux de sucres élevés du fait de leur récolte précoce, au printemps ou en début d'été, avant que les pommes de terre de l'année soient disponibles.
@@ -514,7 +526,9 @@
           <t>Friteuses sous vide en continu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La production de quantités importantes relève de friteuses sous vide fonctionnant en continu commandées par un automate programmable industriel : la cuve de friture est placée dans un tube à vide en inox et l'alimentation en matière première est gérée par un sas rotatif. Une bande transporteuse entraîne le produit fini hors de la friteuse vers l'unité de conditionnement. Un sas à la sortie du tube à vide empêche l'air d'y pénétrer et un agencement de bandes transporteuses transfert le produit d'une zone à l'autre.
 Le vide est créé par des pompes à vide et selon les produits désirés, la cuve de friture est d'un modèle adapté aux spécifications. 
